--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J595"/>
+  <dimension ref="A1:J603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19819,6 +19819,286 @@
         <v>359.1833333333333</v>
       </c>
       <c r="J595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>354.8955555555555</v>
+      </c>
+      <c r="C596" t="n">
+        <v>345.69</v>
+      </c>
+      <c r="D596" t="n">
+        <v>347.1418181818182</v>
+      </c>
+      <c r="E596" t="n">
+        <v>348.47</v>
+      </c>
+      <c r="F596" t="n">
+        <v>361.5866666666667</v>
+      </c>
+      <c r="G596" t="n">
+        <v>359.6542857142857</v>
+      </c>
+      <c r="H596" t="n">
+        <v>371.5377777777778</v>
+      </c>
+      <c r="I596" t="n">
+        <v>366.2477777777778</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>356.8744444444445</v>
+      </c>
+      <c r="C597" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="D597" t="n">
+        <v>357.0718181818182</v>
+      </c>
+      <c r="E597" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="F597" t="n">
+        <v>367.5933333333333</v>
+      </c>
+      <c r="G597" t="n">
+        <v>375.52</v>
+      </c>
+      <c r="H597" t="n">
+        <v>366.4122222222222</v>
+      </c>
+      <c r="I597" t="n">
+        <v>371.6622222222222</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>349.5877777777778</v>
+      </c>
+      <c r="C598" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="D598" t="n">
+        <v>339.8927272727273</v>
+      </c>
+      <c r="E598" t="n">
+        <v>341.51</v>
+      </c>
+      <c r="F598" t="n">
+        <v>354.5433333333333</v>
+      </c>
+      <c r="G598" t="n">
+        <v>363.0742857142857</v>
+      </c>
+      <c r="H598" t="n">
+        <v>359.7788888888889</v>
+      </c>
+      <c r="I598" t="n">
+        <v>365.4388888888889</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>363.7844444444444</v>
+      </c>
+      <c r="C599" t="n">
+        <v>360.01</v>
+      </c>
+      <c r="D599" t="n">
+        <v>356.7690909090909</v>
+      </c>
+      <c r="E599" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="F599" t="n">
+        <v>377.2233333333333</v>
+      </c>
+      <c r="G599" t="n">
+        <v>375.3085714285714</v>
+      </c>
+      <c r="H599" t="n">
+        <v>375.5922222222222</v>
+      </c>
+      <c r="I599" t="n">
+        <v>376.1722222222222</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>358.9366666666667</v>
+      </c>
+      <c r="C600" t="n">
+        <v>361.01</v>
+      </c>
+      <c r="D600" t="n">
+        <v>356.2427272727273</v>
+      </c>
+      <c r="E600" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="F600" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="G600" t="n">
+        <v>373.06</v>
+      </c>
+      <c r="H600" t="n">
+        <v>368.4633333333333</v>
+      </c>
+      <c r="I600" t="n">
+        <v>370.5633333333333</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>346.7911111111111</v>
+      </c>
+      <c r="C601" t="n">
+        <v>349.33</v>
+      </c>
+      <c r="D601" t="n">
+        <v>337.7072727272728</v>
+      </c>
+      <c r="E601" t="n">
+        <v>341.19</v>
+      </c>
+      <c r="F601" t="n">
+        <v>356.2333333333333</v>
+      </c>
+      <c r="G601" t="n">
+        <v>357.5657142857143</v>
+      </c>
+      <c r="H601" t="n">
+        <v>359.2055555555555</v>
+      </c>
+      <c r="I601" t="n">
+        <v>362.5255555555556</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>362.2011111111111</v>
+      </c>
+      <c r="C602" t="n">
+        <v>353.46</v>
+      </c>
+      <c r="D602" t="n">
+        <v>350.1581818181818</v>
+      </c>
+      <c r="E602" t="n">
+        <v>348.83</v>
+      </c>
+      <c r="F602" t="n">
+        <v>360.5533333333333</v>
+      </c>
+      <c r="G602" t="n">
+        <v>358.7385714285714</v>
+      </c>
+      <c r="H602" t="n">
+        <v>361.1055555555556</v>
+      </c>
+      <c r="I602" t="n">
+        <v>361.8055555555555</v>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="n">
+        <v>374.3433333333333</v>
+      </c>
+      <c r="G603" t="n">
+        <v>367.4042857142857</v>
+      </c>
+      <c r="H603" t="n">
+        <v>383.1788888888889</v>
+      </c>
+      <c r="I603" t="n">
+        <v>370.0788888888889</v>
+      </c>
+      <c r="J603" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19835,7 +20115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25913,6 +26193,86 @@
       </c>
       <c r="B607" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -26081,28 +26441,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3550962529455999</v>
+        <v>-0.3158803537432206</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K2" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01239292112607193</v>
+        <v>0.01005155135301039</v>
       </c>
       <c r="M2" t="n">
-        <v>18.66213319848398</v>
+        <v>18.5167565691049</v>
       </c>
       <c r="N2" t="n">
-        <v>545.1381166779064</v>
+        <v>540.3826415844699</v>
       </c>
       <c r="O2" t="n">
-        <v>23.34819300669554</v>
+        <v>23.24613175529361</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9207739902445</v>
+        <v>350.5349581156507</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26158,28 +26518,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4609458998579089</v>
+        <v>-0.4406755385365568</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04631572555134689</v>
+        <v>0.04350772486978027</v>
       </c>
       <c r="M3" t="n">
-        <v>11.23117701964916</v>
+        <v>11.15253488652056</v>
       </c>
       <c r="N3" t="n">
-        <v>239.1830976731184</v>
+        <v>236.9913420106163</v>
       </c>
       <c r="O3" t="n">
-        <v>15.46554550195752</v>
+        <v>15.39452311734976</v>
       </c>
       <c r="P3" t="n">
-        <v>357.2738164607172</v>
+        <v>357.0777777059779</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26235,28 +26595,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1021445090728378</v>
+        <v>-0.1096952710947332</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006288830676266843</v>
+        <v>0.007381272702366104</v>
       </c>
       <c r="M4" t="n">
-        <v>7.176553536162435</v>
+        <v>7.17177757472583</v>
       </c>
       <c r="N4" t="n">
-        <v>89.75839319825432</v>
+        <v>89.37701250841053</v>
       </c>
       <c r="O4" t="n">
-        <v>9.474090626453513</v>
+        <v>9.453941638724586</v>
       </c>
       <c r="P4" t="n">
-        <v>354.6486761783474</v>
+        <v>354.7219349779548</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26312,28 +26672,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2632513482981275</v>
+        <v>-0.2575589953956672</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05190969044060356</v>
+        <v>0.04972119501566341</v>
       </c>
       <c r="M5" t="n">
-        <v>6.55150830915914</v>
+        <v>6.598788554467758</v>
       </c>
       <c r="N5" t="n">
-        <v>68.37227644472313</v>
+        <v>69.48289212461002</v>
       </c>
       <c r="O5" t="n">
-        <v>8.268753016309239</v>
+        <v>8.335639874935218</v>
       </c>
       <c r="P5" t="n">
-        <v>358.4399758247986</v>
+        <v>358.3847809048519</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26389,28 +26749,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08715836748512866</v>
+        <v>0.08010571671358094</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K6" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006072253734363486</v>
+        <v>0.005226408163223839</v>
       </c>
       <c r="M6" t="n">
-        <v>6.637355631374813</v>
+        <v>6.638731567596253</v>
       </c>
       <c r="N6" t="n">
-        <v>68.3300997947936</v>
+        <v>68.23156246017545</v>
       </c>
       <c r="O6" t="n">
-        <v>8.266202259489759</v>
+        <v>8.260239854881664</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7281532519698</v>
+        <v>364.7960094767013</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26466,28 +26826,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08704976764398953</v>
+        <v>0.08182931784037858</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K7" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004920215256430605</v>
+        <v>0.004451117453995179</v>
       </c>
       <c r="M7" t="n">
-        <v>7.036596713010162</v>
+        <v>7.029210051859574</v>
       </c>
       <c r="N7" t="n">
-        <v>82.86276667876386</v>
+        <v>82.36430069178122</v>
       </c>
       <c r="O7" t="n">
-        <v>9.10289880635635</v>
+        <v>9.075477986959212</v>
       </c>
       <c r="P7" t="n">
-        <v>365.7382158898816</v>
+        <v>365.7890315908836</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26543,28 +26903,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02227257845671071</v>
+        <v>0.01698434900398188</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K8" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003621162789720911</v>
+        <v>0.0002146937197217147</v>
       </c>
       <c r="M8" t="n">
-        <v>6.75864496837296</v>
+        <v>6.760044174680066</v>
       </c>
       <c r="N8" t="n">
-        <v>73.8542919005682</v>
+        <v>73.69406155990117</v>
       </c>
       <c r="O8" t="n">
-        <v>8.593851982700668</v>
+        <v>8.584524538953872</v>
       </c>
       <c r="P8" t="n">
-        <v>369.2418658632212</v>
+        <v>369.2933923284334</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26620,28 +26980,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07185361595018688</v>
+        <v>0.06338698315470062</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003028364259273886</v>
+        <v>0.002421837754923661</v>
       </c>
       <c r="M9" t="n">
-        <v>7.374780967341278</v>
+        <v>7.321898016639621</v>
       </c>
       <c r="N9" t="n">
-        <v>93.75279890792572</v>
+        <v>92.65847151848371</v>
       </c>
       <c r="O9" t="n">
-        <v>9.68260289942357</v>
+        <v>9.625927047224268</v>
       </c>
       <c r="P9" t="n">
-        <v>369.0180065729465</v>
+        <v>369.1005476291827</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26678,7 +27038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J595"/>
+  <dimension ref="A1:J603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53530,6 +53890,406 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.49461150221273,174.74301829078127</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-36.495033230953155,174.74228052531979</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.49553045042281,174.74161598238803</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.49609036227757,174.74103301942304</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.4967280709448,174.74058749256554</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-36.49738464661255,174.7402208144966</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-36.49809742079609,174.74010276668005</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-36.49879891472638,174.739918971622</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-36.49462461645137,174.74303326070364</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-36.49511375023779,174.7423724378765</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-36.495592287713855,174.74169610849478</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.49625234379023,174.74128163673234</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-36.496755017814294,174.74064564497047</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-36.49743032047828,174.7403886388615</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-36.49808834101698,174.7400466679041</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-36.49880518500948,174.73997891080955</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.494576327178486,174.74297813846536</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.49500075813346,174.74224345775835</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.495485307974945,174.74155748886997</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.49605097046385,174.74097255918468</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-36.4966964733848,174.74051930391914</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-36.497394492053,174.74025699055935</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-36.49807659021171,174.73997406664466</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>-36.49879797797718,174.73991001703035</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-36.49467040950113,174.74308553359413</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-36.4951281310402,174.74238885355484</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-36.495590402534994,174.741693665758</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-36.49616201454495,174.74114299466777</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-36.49679821947624,174.74073887607284</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-36.49742971182399,174.74038640241096</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-36.49810460311273,174.74014714224322</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-36.498810407863154,174.74002883758848</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.49463828294383,174.7430488610324</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.49513475813725,174.74239641838562</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.49558712470138,174.74168941847716</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.49614871417172,174.74112258060634</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-36.49674450524885,174.74062295842822</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-36.497423238700776,174.74036261745925</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-36.49809197450647,174.74006911714184</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-36.498803912426254,174.73996674584754</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.4945577934566,174.74295698223568</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.49505735361112,174.74230806124265</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.49547169843232,174.7415398542686</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.49604915934518,174.74096977940508</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-36.49670405500844,174.7405356653168</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-36.49737863406152,174.7401987220182</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-36.498075574562115,174.73996779156187</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-36.49879460413039,174.73987776574174</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.494659916643414,174.74307355596062</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.49508472354158,174.74233930394513</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.49554923429157,174.7416403216973</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.496092399784295,174.74103614667843</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.496723435242835,174.7405774885487</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.49738201046723,174.74021112825912</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.49807894037635,174.73998858689492</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.49879377031792,174.73986979517193</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.496785299361015,174.74071099386333</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.497406957170554,174.74030279242908</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.49811804260131,174.7402301777103</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.498803351408384,174.73996138293217</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -26286,7 +26286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26377,35 +26377,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26464,27 +26469,28 @@
       <c r="P2" t="n">
         <v>350.5349581156507</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7403336545289 -36.49225955088011, 174.74730184994155 -36.49836380358923)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7403336545289</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.49225955088011</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7473018499416</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.49836380358923</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7438177522352</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.49531167723467</v>
       </c>
     </row>
@@ -26541,27 +26547,28 @@
       <c r="P3" t="n">
         <v>357.0777777059779</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.73966552286367 -36.49274227594311, 174.74663371469435 -36.498846540691964)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7396655228637</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.49274227594311</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7466337146944</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.49884654069196</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.743149618779</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.49579440831754</v>
       </c>
     </row>
@@ -26618,27 +26625,28 @@
       <c r="P4" t="n">
         <v>354.7219349779548</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.7388149423126 -36.49336865074575, 174.7462483243012 -36.499105202091826)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7388149423126</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.49336865074575</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7462483243012</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.49910520209183</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7425316333069</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.49623692641879</v>
       </c>
     </row>
@@ -26695,27 +26703,28 @@
       <c r="P5" t="n">
         <v>358.3847809048519</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.73800599943112 -36.49411807153893, 174.74600942071103 -36.49933240225918)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7380059994311</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.49411807153893</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.746009420711</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.49933240225918</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7420077100711</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.49672523689905</v>
       </c>
     </row>
@@ -26772,27 +26781,28 @@
       <c r="P6" t="n">
         <v>364.7960094767013</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.73708693261204 -36.49510588076084, 174.74600852791653 -36.49923988390902)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.737086932612</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.49510588076084</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7460085279165</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.49923988390902</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7415477302643</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.49717288233493</v>
       </c>
     </row>
@@ -26849,27 +26859,28 @@
       <c r="P7" t="n">
         <v>365.7890315908836</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.73641651372307 -36.49634921697812, 174.74616635612887 -36.49900256346259)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7364165137231</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.49634921697812</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7461663561289</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.49900256346259</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.741291434926</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.49767589022035</v>
       </c>
     </row>
@@ -26926,27 +26937,28 @@
       <c r="P8" t="n">
         <v>369.2933923284334</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7360363481129 -36.497439182630494, 174.74612550155624 -36.49907205407805)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7360363481129</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.49743918263049</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7461255015562</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.49907205407805</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7410809248346</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.49825561835427</v>
       </c>
     </row>
@@ -27003,27 +27015,28 @@
       <c r="P9" t="n">
         <v>369.1005476291827</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.73586454126354 -36.49837470512503, 174.74606952435937 -36.49944216555688)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7358645412635</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.49837470512503</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7460695243594</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.49944216555688</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7409670328115</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.49890843534095</v>
       </c>
     </row>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J603"/>
+  <dimension ref="A1:J607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20099,6 +20099,150 @@
         <v>370.0788888888889</v>
       </c>
       <c r="J603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>360.7077777777778</v>
+      </c>
+      <c r="C604" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="D604" t="n">
+        <v>348.41</v>
+      </c>
+      <c r="E604" t="n">
+        <v>353.19</v>
+      </c>
+      <c r="F604" t="n">
+        <v>362.5433333333333</v>
+      </c>
+      <c r="G604" t="n">
+        <v>364.0628571428572</v>
+      </c>
+      <c r="H604" t="n">
+        <v>365.2988888888889</v>
+      </c>
+      <c r="I604" t="n">
+        <v>368.8088888888889</v>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>358.9566666666667</v>
+      </c>
+      <c r="C605" t="n">
+        <v>355.72</v>
+      </c>
+      <c r="D605" t="n">
+        <v>356.5063636363636</v>
+      </c>
+      <c r="E605" t="n">
+        <v>357.28</v>
+      </c>
+      <c r="F605" t="n">
+        <v>376.56</v>
+      </c>
+      <c r="G605" t="n">
+        <v>378.0942857142857</v>
+      </c>
+      <c r="H605" t="n">
+        <v>376.3633333333333</v>
+      </c>
+      <c r="I605" t="n">
+        <v>377.0333333333333</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>356.01</v>
+      </c>
+      <c r="C606" t="n">
+        <v>353.22</v>
+      </c>
+      <c r="D606" t="n">
+        <v>347.4927272727273</v>
+      </c>
+      <c r="E606" t="n">
+        <v>352.22</v>
+      </c>
+      <c r="F606" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="G606" t="n">
+        <v>361.7285714285715</v>
+      </c>
+      <c r="H606" t="n">
+        <v>373.96</v>
+      </c>
+      <c r="I606" t="n">
+        <v>370.67</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>341.4577777777778</v>
+      </c>
+      <c r="C607" t="n">
+        <v>339.55</v>
+      </c>
+      <c r="D607" t="n">
+        <v>343.8854545454545</v>
+      </c>
+      <c r="E607" t="n">
+        <v>346.71</v>
+      </c>
+      <c r="F607" t="n">
+        <v>356.3433333333333</v>
+      </c>
+      <c r="G607" t="n">
+        <v>366.7457142857143</v>
+      </c>
+      <c r="H607" t="n">
+        <v>365.0288888888889</v>
+      </c>
+      <c r="I607" t="n">
+        <v>371.5788888888889</v>
+      </c>
+      <c r="J607" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20115,7 +20259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26273,6 +26417,46 @@
       </c>
       <c r="B615" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -26446,28 +26630,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3158803537432206</v>
+        <v>-0.2974469944972986</v>
       </c>
       <c r="J2" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K2" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01005155135301039</v>
+        <v>0.00903972516510998</v>
       </c>
       <c r="M2" t="n">
-        <v>18.5167565691049</v>
+        <v>18.42774534835068</v>
       </c>
       <c r="N2" t="n">
-        <v>540.3826415844699</v>
+        <v>537.4398529807247</v>
       </c>
       <c r="O2" t="n">
-        <v>23.24613175529361</v>
+        <v>23.18274903847093</v>
       </c>
       <c r="P2" t="n">
-        <v>350.5349581156507</v>
+        <v>350.3520496144604</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26524,28 +26708,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4406755385365568</v>
+        <v>-0.4321586822118834</v>
       </c>
       <c r="J3" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K3" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04350772486978027</v>
+        <v>0.04250752435354066</v>
       </c>
       <c r="M3" t="n">
-        <v>11.15253488652056</v>
+        <v>11.11413538105741</v>
       </c>
       <c r="N3" t="n">
-        <v>236.9913420106163</v>
+        <v>235.5432759634656</v>
       </c>
       <c r="O3" t="n">
-        <v>15.39452311734976</v>
+        <v>15.34741919553466</v>
       </c>
       <c r="P3" t="n">
-        <v>357.0777777059779</v>
+        <v>356.9948877860051</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26602,28 +26786,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1096952710947332</v>
+        <v>-0.1140927734450917</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K4" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007381272702366104</v>
+        <v>0.008089300638277952</v>
       </c>
       <c r="M4" t="n">
-        <v>7.17177757472583</v>
+        <v>7.155602938437913</v>
       </c>
       <c r="N4" t="n">
-        <v>89.37701250841053</v>
+        <v>88.88231327527245</v>
       </c>
       <c r="O4" t="n">
-        <v>9.453941638724586</v>
+        <v>9.427741684797715</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7219349779548</v>
+        <v>354.7650278721688</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26680,28 +26864,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2575589953956672</v>
+        <v>-0.2567184789925872</v>
       </c>
       <c r="J5" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04972119501566341</v>
+        <v>0.05011039198840539</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598788554467758</v>
+        <v>6.569732347601459</v>
       </c>
       <c r="N5" t="n">
-        <v>69.48289212461002</v>
+        <v>69.02902800673944</v>
       </c>
       <c r="O5" t="n">
-        <v>8.335639874935218</v>
+        <v>8.308370959865684</v>
       </c>
       <c r="P5" t="n">
-        <v>358.3847809048519</v>
+        <v>358.3765870886743</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26758,28 +26942,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08010571671358094</v>
+        <v>0.07556579409410789</v>
       </c>
       <c r="J6" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K6" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005226408163223839</v>
+        <v>0.004691803748786194</v>
       </c>
       <c r="M6" t="n">
-        <v>6.638731567596253</v>
+        <v>6.646647499098071</v>
       </c>
       <c r="N6" t="n">
-        <v>68.23156246017545</v>
+        <v>68.2185756535268</v>
       </c>
       <c r="O6" t="n">
-        <v>8.260239854881664</v>
+        <v>8.259453713989007</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7960094767013</v>
+        <v>364.8402484237052</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26836,28 +27020,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08182931784037858</v>
+        <v>0.08148484179932389</v>
       </c>
       <c r="J7" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K7" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004451117453995179</v>
+        <v>0.004469568723495354</v>
       </c>
       <c r="M7" t="n">
-        <v>7.029210051859574</v>
+        <v>7.015151738771912</v>
       </c>
       <c r="N7" t="n">
-        <v>82.36430069178122</v>
+        <v>82.01226449093694</v>
       </c>
       <c r="O7" t="n">
-        <v>9.075477986959212</v>
+        <v>9.056062306043225</v>
       </c>
       <c r="P7" t="n">
-        <v>365.7890315908836</v>
+        <v>365.7923924713867</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26914,28 +27098,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01698434900398188</v>
+        <v>0.01768218021181898</v>
       </c>
       <c r="J8" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002146937197217147</v>
+        <v>0.0002359412171221154</v>
       </c>
       <c r="M8" t="n">
-        <v>6.760044174680066</v>
+        <v>6.74512206581988</v>
       </c>
       <c r="N8" t="n">
-        <v>73.69406155990117</v>
+        <v>73.28733752634072</v>
       </c>
       <c r="O8" t="n">
-        <v>8.584524538953872</v>
+        <v>8.560802387997326</v>
       </c>
       <c r="P8" t="n">
-        <v>369.2933923284334</v>
+        <v>369.2865002671979</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26992,28 +27176,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06338698315470062</v>
+        <v>0.06535498265548798</v>
       </c>
       <c r="J9" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K9" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002421837754923661</v>
+        <v>0.002612100637458203</v>
       </c>
       <c r="M9" t="n">
-        <v>7.321898016639621</v>
+        <v>7.280338240302065</v>
       </c>
       <c r="N9" t="n">
-        <v>92.65847151848371</v>
+        <v>91.97951749290384</v>
       </c>
       <c r="O9" t="n">
-        <v>9.625927047224268</v>
+        <v>9.590595262698965</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1005476291827</v>
+        <v>369.081175713191</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27051,7 +27235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J603"/>
+  <dimension ref="A1:J607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54303,6 +54487,214 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.4946500202206,174.74306225916396</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.49509950197492,174.74235617350067</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.49553834780046,174.74162621545963</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.496117076247664,174.7410740212285</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.49673236270678,174.74059675434992</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.497397337934274,174.74026744746797</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.498086368774395,174.74003448256568</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-36.49880188066542,174.73994732372998</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.49463841548523,174.7430490123287</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.49509970078791,174.74235640044543</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.495588766448805,174.7416915457853</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.49614022456983,174.741109550358</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.49679524366326,174.74073245412796</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.497437731251985,174.74041586916073</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.49810596910912,174.74015558199218</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.49881140507968,174.74003837029517</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.49461888771626,174.7430267213433</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.495083133037404,174.742337488388</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.495532635647116,174.7416188139044</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.496111586301645,174.74106559500774</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.49672180527001,174.74057397100756</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.49739061803392,174.74024275586694</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.49810171168609,174.74012927770346</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-36.49880403595309,174.73996792667296</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.49452244904123,174.74291663665292</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.49499254051995,174.74223407740078</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.495510171990674,174.74158970651035</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.49608040113234,174.7410177306214</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.496704548486825,174.74053673025995</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.49740506128944,174.74029582619198</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.49808589047585,174.7400315274388</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-36.49880508850422,174.73997798828967</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J607"/>
+  <dimension ref="A1:J610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20245,6 +20245,110 @@
       <c r="J607" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>333.8933333333333</v>
+      </c>
+      <c r="C608" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="n">
+        <v>329</v>
+      </c>
+      <c r="F608" t="n">
+        <v>337.64</v>
+      </c>
+      <c r="G608" t="n">
+        <v>345.5857142857143</v>
+      </c>
+      <c r="H608" t="n">
+        <v>343.9366666666667</v>
+      </c>
+      <c r="I608" t="n">
+        <v>343.3566666666667</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>357.8833333333333</v>
+      </c>
+      <c r="C609" t="n">
+        <v>353.18</v>
+      </c>
+      <c r="D609" t="n">
+        <v>349.3027272727272</v>
+      </c>
+      <c r="E609" t="n">
+        <v>355.55</v>
+      </c>
+      <c r="F609" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="G609" t="n">
+        <v>373.6828571428572</v>
+      </c>
+      <c r="H609" t="n">
+        <v>378.1166666666667</v>
+      </c>
+      <c r="I609" t="n">
+        <v>376.3666666666667</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="n">
+        <v>342.04</v>
+      </c>
+      <c r="D610" t="n">
+        <v>338.5336363636364</v>
+      </c>
+      <c r="E610" t="n">
+        <v>346.87</v>
+      </c>
+      <c r="F610" t="n">
+        <v>363.6666666666667</v>
+      </c>
+      <c r="G610" t="n">
+        <v>364.9885714285714</v>
+      </c>
+      <c r="H610" t="n">
+        <v>380.0811111111111</v>
+      </c>
+      <c r="I610" t="n">
+        <v>368.6711111111111</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20259,7 +20363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26457,6 +26561,36 @@
       </c>
       <c r="B619" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -26630,28 +26764,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2974469944972986</v>
+        <v>-0.2949597047500528</v>
       </c>
       <c r="J2" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00903972516510998</v>
+        <v>0.008951219156176804</v>
       </c>
       <c r="M2" t="n">
-        <v>18.42774534835068</v>
+        <v>18.39575660411504</v>
       </c>
       <c r="N2" t="n">
-        <v>537.4398529807247</v>
+        <v>535.8181529714682</v>
       </c>
       <c r="O2" t="n">
-        <v>23.18274903847093</v>
+        <v>23.1477461747676</v>
       </c>
       <c r="P2" t="n">
-        <v>350.3520496144604</v>
+        <v>350.3271374026141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26708,28 +26842,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4321586822118834</v>
+        <v>-0.4199812576988945</v>
       </c>
       <c r="J3" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04250752435354066</v>
+        <v>0.04046659000263975</v>
       </c>
       <c r="M3" t="n">
-        <v>11.11413538105741</v>
+        <v>11.10440695663364</v>
       </c>
       <c r="N3" t="n">
-        <v>235.5432759634656</v>
+        <v>235.6846825079882</v>
       </c>
       <c r="O3" t="n">
-        <v>15.34741919553466</v>
+        <v>15.35202535524183</v>
       </c>
       <c r="P3" t="n">
-        <v>356.9948877860051</v>
+        <v>356.8754507715032</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26786,28 +26920,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1140927734450917</v>
+        <v>-0.1202135209446499</v>
       </c>
       <c r="J4" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008089300638277952</v>
+        <v>0.009008483616903651</v>
       </c>
       <c r="M4" t="n">
-        <v>7.155602938437913</v>
+        <v>7.15920797729272</v>
       </c>
       <c r="N4" t="n">
-        <v>88.88231327527245</v>
+        <v>88.89021763702981</v>
       </c>
       <c r="O4" t="n">
-        <v>9.427741684797715</v>
+        <v>9.428160883068861</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7650278721688</v>
+        <v>354.8254180692209</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26864,28 +26998,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2567184789925872</v>
+        <v>-0.2659474312513178</v>
       </c>
       <c r="J5" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K5" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05011039198840539</v>
+        <v>0.05337404859632</v>
       </c>
       <c r="M5" t="n">
-        <v>6.569732347601459</v>
+        <v>6.594543400647458</v>
       </c>
       <c r="N5" t="n">
-        <v>69.02902800673944</v>
+        <v>69.73976573944424</v>
       </c>
       <c r="O5" t="n">
-        <v>8.308370959865684</v>
+        <v>8.351033812615313</v>
       </c>
       <c r="P5" t="n">
-        <v>358.3765870886743</v>
+        <v>358.4679824312316</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26942,28 +27076,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07556579409410789</v>
+        <v>0.06267906135679789</v>
       </c>
       <c r="J6" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K6" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004691803748786194</v>
+        <v>0.00318985097290525</v>
       </c>
       <c r="M6" t="n">
-        <v>6.646647499098071</v>
+        <v>6.669402115074082</v>
       </c>
       <c r="N6" t="n">
-        <v>68.2185756535268</v>
+        <v>69.55759125206801</v>
       </c>
       <c r="O6" t="n">
-        <v>8.259453713989007</v>
+        <v>8.340119378765991</v>
       </c>
       <c r="P6" t="n">
-        <v>364.8402484237052</v>
+        <v>364.9662971563467</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27020,28 +27154,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08148484179932389</v>
+        <v>0.07401276973994682</v>
       </c>
       <c r="J7" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K7" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004469568723495354</v>
+        <v>0.003686717394054462</v>
       </c>
       <c r="M7" t="n">
-        <v>7.015151738771912</v>
+        <v>7.033168416432687</v>
       </c>
       <c r="N7" t="n">
-        <v>82.01226449093694</v>
+        <v>82.60597247032089</v>
       </c>
       <c r="O7" t="n">
-        <v>9.056062306043225</v>
+        <v>9.088782782656921</v>
       </c>
       <c r="P7" t="n">
-        <v>365.7923924713867</v>
+        <v>365.8659727666947</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27098,28 +27232,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01768218021181898</v>
+        <v>0.0149069442285056</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002359412171221154</v>
+        <v>0.000165774258813145</v>
       </c>
       <c r="M8" t="n">
-        <v>6.74512206581988</v>
+        <v>6.796290030093475</v>
       </c>
       <c r="N8" t="n">
-        <v>73.28733752634072</v>
+        <v>74.60388258272241</v>
       </c>
       <c r="O8" t="n">
-        <v>8.560802387997326</v>
+        <v>8.637353910933742</v>
       </c>
       <c r="P8" t="n">
-        <v>369.2865002671979</v>
+        <v>369.3138366378928</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27176,28 +27310,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06535498265548798</v>
+        <v>0.05641999112538999</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K9" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002612100637458203</v>
+        <v>0.001936690559921406</v>
       </c>
       <c r="M9" t="n">
-        <v>7.280338240302065</v>
+        <v>7.306291572405321</v>
       </c>
       <c r="N9" t="n">
-        <v>91.97951749290384</v>
+        <v>93.02784098432255</v>
       </c>
       <c r="O9" t="n">
-        <v>9.590595262698965</v>
+        <v>9.64509414077035</v>
       </c>
       <c r="P9" t="n">
-        <v>369.081175713191</v>
+        <v>369.1694876923001</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27235,7 +27369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J607"/>
+  <dimension ref="A1:J610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54695,6 +54829,154 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.49447231885332,174.74285941323114</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.495211168528634,174.7424836409781</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.49598016699269,174.74086388727127</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.496620642065835,174.7403556578437</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-36.497344146119474,174.74007200010865</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-36.498048525879426,174.73980067497482</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-36.49877240497693,174.7396655616719</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.49463130242964,174.74304089276032</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.495082867953364,174.74233718579512</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.495543907100874,174.7416334189565</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.496130433227094,174.74109452214174</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.49674486414163,174.74062373293313</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.49742503176462,174.74036920592073</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.498109075075604,174.74017477208525</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-36.498810633041145,174.74003099013512</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.495009042017216,174.74225291376598</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.49547684447018,174.74154652225982</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.49608130669109,174.74101912051228</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.49673740216154,174.74060762968685</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.49740000286272,174.74027723948714</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.49811255501405,174.74019627277417</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-36.498801721109665,174.73994579849722</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:J611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20324,7 +20324,9 @@
           <t>2025-05-21 22:11:16+00:00</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
+      <c r="B610" t="n">
+        <v>295.7122222222222</v>
+      </c>
       <c r="C610" t="n">
         <v>342.04</v>
       </c>
@@ -20349,6 +20351,40 @@
       <c r="J610" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>278.8933333333333</v>
+      </c>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="n">
+        <v>332.7372727272727</v>
+      </c>
+      <c r="E611" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="F611" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="G611" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="H611" t="n">
+        <v>367.4766666666667</v>
+      </c>
+      <c r="I611" t="n">
+        <v>368.5466666666667</v>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20363,7 +20399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26591,6 +26627,16 @@
       </c>
       <c r="B622" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
@@ -26764,28 +26810,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2949597047500528</v>
+        <v>-0.338027606397538</v>
       </c>
       <c r="J2" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K2" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008951219156176804</v>
+        <v>0.01153762963882943</v>
       </c>
       <c r="M2" t="n">
-        <v>18.39575660411504</v>
+        <v>18.63210337934511</v>
       </c>
       <c r="N2" t="n">
-        <v>535.8181529714682</v>
+        <v>546.6364462235346</v>
       </c>
       <c r="O2" t="n">
-        <v>23.1477461747676</v>
+        <v>23.38025761670591</v>
       </c>
       <c r="P2" t="n">
-        <v>350.3271374026141</v>
+        <v>350.7594862029487</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26845,7 +26891,7 @@
         <v>-0.4199812576988945</v>
       </c>
       <c r="J3" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K3" t="n">
         <v>460</v>
@@ -26920,28 +26966,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1202135209446499</v>
+        <v>-0.1275492841776398</v>
       </c>
       <c r="J4" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K4" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009008483616903651</v>
+        <v>0.01008900575143112</v>
       </c>
       <c r="M4" t="n">
-        <v>7.15920797729272</v>
+        <v>7.184429506241738</v>
       </c>
       <c r="N4" t="n">
-        <v>88.89021763702981</v>
+        <v>89.44015527499242</v>
       </c>
       <c r="O4" t="n">
-        <v>9.428160883068861</v>
+        <v>9.457280543316479</v>
       </c>
       <c r="P4" t="n">
-        <v>354.8254180692209</v>
+        <v>354.897991621253</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26998,28 +27044,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2659474312513178</v>
+        <v>-0.2691691260851445</v>
       </c>
       <c r="J5" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K5" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05337404859632</v>
+        <v>0.0547114767949598</v>
       </c>
       <c r="M5" t="n">
-        <v>6.594543400647458</v>
+        <v>6.598226206163766</v>
       </c>
       <c r="N5" t="n">
-        <v>69.73976573944424</v>
+        <v>69.73788196039281</v>
       </c>
       <c r="O5" t="n">
-        <v>8.351033812615313</v>
+        <v>8.350921024677028</v>
       </c>
       <c r="P5" t="n">
-        <v>358.4679824312316</v>
+        <v>358.5000485180013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27076,28 +27122,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06267906135679789</v>
+        <v>0.05990430810543349</v>
       </c>
       <c r="J6" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K6" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00318985097290525</v>
+        <v>0.002921867980183457</v>
       </c>
       <c r="M6" t="n">
-        <v>6.669402115074082</v>
+        <v>6.669267143553401</v>
       </c>
       <c r="N6" t="n">
-        <v>69.55759125206801</v>
+        <v>69.521436231807</v>
       </c>
       <c r="O6" t="n">
-        <v>8.340119378765991</v>
+        <v>8.337951560893538</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9662971563467</v>
+        <v>364.9935829211673</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27154,28 +27200,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07401276973994682</v>
+        <v>0.07065555118455773</v>
       </c>
       <c r="J7" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K7" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003686717394054462</v>
+        <v>0.003368555139931506</v>
       </c>
       <c r="M7" t="n">
-        <v>7.033168416432687</v>
+        <v>7.035411222030755</v>
       </c>
       <c r="N7" t="n">
-        <v>82.60597247032089</v>
+        <v>82.59038434753056</v>
       </c>
       <c r="O7" t="n">
-        <v>9.088782782656921</v>
+        <v>9.087925194868768</v>
       </c>
       <c r="P7" t="n">
-        <v>365.8659727666947</v>
+        <v>365.8992095788743</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27232,28 +27278,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0149069442285056</v>
+        <v>0.01402386677150128</v>
       </c>
       <c r="J8" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K8" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000165774258813145</v>
+        <v>0.0001473143858748971</v>
       </c>
       <c r="M8" t="n">
-        <v>6.796290030093475</v>
+        <v>6.78655383649137</v>
       </c>
       <c r="N8" t="n">
-        <v>74.60388258272241</v>
+        <v>74.45683654029992</v>
       </c>
       <c r="O8" t="n">
-        <v>8.637353910933742</v>
+        <v>8.628837496459179</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3138366378928</v>
+        <v>369.3226364670535</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27310,28 +27356,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05641999112538999</v>
+        <v>0.05563940587650266</v>
       </c>
       <c r="J9" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K9" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001936690559921406</v>
+        <v>0.001890749766162325</v>
       </c>
       <c r="M9" t="n">
-        <v>7.306291572405321</v>
+        <v>7.295394864785535</v>
       </c>
       <c r="N9" t="n">
-        <v>93.02784098432255</v>
+        <v>92.84487668147069</v>
       </c>
       <c r="O9" t="n">
-        <v>9.64509414077035</v>
+        <v>9.635604634970797</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1694876923001</v>
+        <v>369.177247960359</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27369,7 +27415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:J611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54935,7 +54981,11 @@
           <t>2025-05-21 22:11:16+00:00</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.49421928907254,174.7425705823331</t>
+        </is>
+      </c>
       <c r="C610" t="inlineStr">
         <is>
           <t>-36.495009042017216,174.74225291376598</t>
@@ -54974,6 +55024,54 @@
       <c r="J610" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.4941078284876,174.74244335209272</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.495440748600934,174.74149975097808</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.496061044810105,174.74098802171113</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.49671803689204,174.7405658387112</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.49738302215494,174.74021484559825</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.4980902266529,174.74005831815833</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-36.49880157699475,174.73994442086763</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J611"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20363,7 +20363,9 @@
       <c r="B611" t="n">
         <v>278.8933333333333</v>
       </c>
-      <c r="C611" t="inlineStr"/>
+      <c r="C611" t="n">
+        <v>285.7</v>
+      </c>
       <c r="D611" t="n">
         <v>332.7372727272727</v>
       </c>
@@ -20385,6 +20387,42 @@
       <c r="J611" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>315.3411111111111</v>
+      </c>
+      <c r="C612" t="n">
+        <v>325.32</v>
+      </c>
+      <c r="D612" t="n">
+        <v>335.7</v>
+      </c>
+      <c r="E612" t="n">
+        <v>340.1</v>
+      </c>
+      <c r="F612" t="n">
+        <v>351.6733333333333</v>
+      </c>
+      <c r="G612" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="H612" t="n">
+        <v>360.7455555555555</v>
+      </c>
+      <c r="I612" t="n">
+        <v>367.1555555555556</v>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20399,7 +20437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B623"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26637,6 +26675,16 @@
       </c>
       <c r="B623" t="n">
         <v>-0.84</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26858,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.338027606397538</v>
+        <v>-0.3483776574145674</v>
       </c>
       <c r="J2" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K2" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01153762963882943</v>
+        <v>0.01226187975543902</v>
       </c>
       <c r="M2" t="n">
-        <v>18.63210337934511</v>
+        <v>18.66859746637704</v>
       </c>
       <c r="N2" t="n">
-        <v>546.6364462235346</v>
+        <v>546.9761117324628</v>
       </c>
       <c r="O2" t="n">
-        <v>23.38025761670591</v>
+        <v>23.38752042719499</v>
       </c>
       <c r="P2" t="n">
-        <v>350.7594862029487</v>
+        <v>350.8636137401227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26888,28 +26936,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4199812576988945</v>
+        <v>-0.4527265401609367</v>
       </c>
       <c r="J3" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K3" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04046659000263975</v>
+        <v>0.04549085142468146</v>
       </c>
       <c r="M3" t="n">
-        <v>11.10440695663364</v>
+        <v>11.28302419974811</v>
       </c>
       <c r="N3" t="n">
-        <v>235.6846825079882</v>
+        <v>243.384716405046</v>
       </c>
       <c r="O3" t="n">
-        <v>15.35202535524183</v>
+        <v>15.60079217235606</v>
       </c>
       <c r="P3" t="n">
-        <v>356.8754507715032</v>
+        <v>357.19858281207</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26966,28 +27014,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1275492841776398</v>
+        <v>-0.1336693926399944</v>
       </c>
       <c r="J4" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K4" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01008900575143112</v>
+        <v>0.01105168328032691</v>
       </c>
       <c r="M4" t="n">
-        <v>7.184429506241738</v>
+        <v>7.202990891292868</v>
       </c>
       <c r="N4" t="n">
-        <v>89.44015527499242</v>
+        <v>89.77016419045454</v>
       </c>
       <c r="O4" t="n">
-        <v>9.457280543316479</v>
+        <v>9.474711826248571</v>
       </c>
       <c r="P4" t="n">
-        <v>354.897991621253</v>
+        <v>354.9586051865251</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27044,28 +27092,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2691691260851445</v>
+        <v>-0.2735859180246253</v>
       </c>
       <c r="J5" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0547114767949598</v>
+        <v>0.05643382096415095</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598226206163766</v>
+        <v>6.608200778827316</v>
       </c>
       <c r="N5" t="n">
-        <v>69.73788196039281</v>
+        <v>69.86168341382525</v>
       </c>
       <c r="O5" t="n">
-        <v>8.350921024677028</v>
+        <v>8.358330180952727</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5000485180013</v>
+        <v>358.544057959507</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27122,28 +27170,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05990430810543349</v>
+        <v>0.05422384716854583</v>
       </c>
       <c r="J6" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K6" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002921867980183457</v>
+        <v>0.002389497791432826</v>
       </c>
       <c r="M6" t="n">
-        <v>6.669267143553401</v>
+        <v>6.68327423279263</v>
       </c>
       <c r="N6" t="n">
-        <v>69.521436231807</v>
+        <v>69.82971105054318</v>
       </c>
       <c r="O6" t="n">
-        <v>8.337951560893538</v>
+        <v>8.356417357369317</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9935829211673</v>
+        <v>365.049505106927</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27200,28 +27248,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07065555118455773</v>
+        <v>0.07133994824520826</v>
       </c>
       <c r="J7" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K7" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003368555139931506</v>
+        <v>0.003447709130645848</v>
       </c>
       <c r="M7" t="n">
-        <v>7.035411222030755</v>
+        <v>7.024929953948077</v>
       </c>
       <c r="N7" t="n">
-        <v>82.59038434753056</v>
+        <v>82.42890073299665</v>
       </c>
       <c r="O7" t="n">
-        <v>9.087925194868768</v>
+        <v>9.07903633283823</v>
       </c>
       <c r="P7" t="n">
-        <v>365.8992095788743</v>
+        <v>365.8924265518114</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27278,28 +27326,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01402386677150128</v>
+        <v>0.01048542051867055</v>
       </c>
       <c r="J8" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K8" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001473143858748971</v>
+        <v>8.25178341335997e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.78655383649137</v>
+        <v>6.790662237936024</v>
       </c>
       <c r="N8" t="n">
-        <v>74.45683654029992</v>
+        <v>74.4672522316577</v>
       </c>
       <c r="O8" t="n">
-        <v>8.628837496459179</v>
+        <v>8.629441015017004</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3226364670535</v>
+        <v>369.3579359873772</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27356,28 +27404,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05563940587650266</v>
+        <v>0.05434528814231796</v>
       </c>
       <c r="J9" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K9" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001890749766162325</v>
+        <v>0.001810518799678418</v>
       </c>
       <c r="M9" t="n">
-        <v>7.295394864785535</v>
+        <v>7.287264476463746</v>
       </c>
       <c r="N9" t="n">
-        <v>92.84487668147069</v>
+        <v>92.67828818280408</v>
       </c>
       <c r="O9" t="n">
-        <v>9.635604634970797</v>
+        <v>9.626956330159812</v>
       </c>
       <c r="P9" t="n">
-        <v>369.177247960359</v>
+        <v>369.190128555731</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27415,7 +27463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J611"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55038,7 +55086,11 @@
           <t>-36.4941078284876,174.74244335209272</t>
         </is>
       </c>
-      <c r="C611" t="inlineStr"/>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.4946356699988,174.7418267145976</t>
+        </is>
+      </c>
       <c r="D611" t="inlineStr">
         <is>
           <t>-36.495440748600934,174.74149975097808</t>
@@ -55072,6 +55124,58 @@
       <c r="J611" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.49434937164303,174.74271906990847</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.494898236720516,174.74212643037532</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.49545919848388,174.74152365743552</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.496042990221746,174.74096031078173</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.496683598077766,174.74049151859418</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.497412990264515,174.74032496047863</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.49807830264341,174.73998464672644</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-36.49879996599492,174.73992902093727</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20421,6 +20421,42 @@
         <v>367.1555555555556</v>
       </c>
       <c r="J612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>314.1311111111111</v>
+      </c>
+      <c r="C613" t="n">
+        <v>324.36</v>
+      </c>
+      <c r="D613" t="n">
+        <v>340.6018181818182</v>
+      </c>
+      <c r="E613" t="n">
+        <v>344.23</v>
+      </c>
+      <c r="F613" t="n">
+        <v>355.3233333333333</v>
+      </c>
+      <c r="G613" t="n">
+        <v>370.0757142857143</v>
+      </c>
+      <c r="H613" t="n">
+        <v>367.3455555555556</v>
+      </c>
+      <c r="I613" t="n">
+        <v>375.6555555555556</v>
+      </c>
+      <c r="J613" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -20437,7 +20473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B624"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26685,6 +26721,16 @@
       </c>
       <c r="B624" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -26858,28 +26904,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3483776574145674</v>
+        <v>-0.3591465221102565</v>
       </c>
       <c r="J2" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K2" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01226187975543902</v>
+        <v>0.01303613266654569</v>
       </c>
       <c r="M2" t="n">
-        <v>18.66859746637704</v>
+        <v>18.7077014735035</v>
       </c>
       <c r="N2" t="n">
-        <v>546.9761117324628</v>
+        <v>547.4295452586423</v>
       </c>
       <c r="O2" t="n">
-        <v>23.38752042719499</v>
+        <v>23.39721233947844</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8636137401227</v>
+        <v>350.9724457679951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26936,28 +26982,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4527265401609367</v>
+        <v>-0.4612844904522586</v>
       </c>
       <c r="J3" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K3" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04549085142468146</v>
+        <v>0.04716304479863975</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28302419974811</v>
+        <v>11.31853544502193</v>
       </c>
       <c r="N3" t="n">
-        <v>243.384716405046</v>
+        <v>243.8159086367087</v>
       </c>
       <c r="O3" t="n">
-        <v>15.60079217235606</v>
+        <v>15.61460561899367</v>
       </c>
       <c r="P3" t="n">
-        <v>357.19858281207</v>
+        <v>357.2834798955482</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27014,28 +27060,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1336693926399944</v>
+        <v>-0.1378702195454291</v>
       </c>
       <c r="J4" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K4" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01105168328032691</v>
+        <v>0.01176589646976223</v>
       </c>
       <c r="M4" t="n">
-        <v>7.202990891292868</v>
+        <v>7.210901763185192</v>
       </c>
       <c r="N4" t="n">
-        <v>89.77016419045454</v>
+        <v>89.82752054922008</v>
       </c>
       <c r="O4" t="n">
-        <v>9.474711826248571</v>
+        <v>9.477738155763753</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9586051865251</v>
+        <v>355.0003923538206</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27092,28 +27138,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2735859180246253</v>
+        <v>-0.2763798663831241</v>
       </c>
       <c r="J5" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K5" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05643382096415095</v>
+        <v>0.05766690422340248</v>
       </c>
       <c r="M5" t="n">
-        <v>6.608200778827316</v>
+        <v>6.609563042509922</v>
       </c>
       <c r="N5" t="n">
-        <v>69.86168341382525</v>
+        <v>69.82521962381441</v>
       </c>
       <c r="O5" t="n">
-        <v>8.358330180952727</v>
+        <v>8.356148611879423</v>
       </c>
       <c r="P5" t="n">
-        <v>358.544057959507</v>
+        <v>358.5720190092249</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27170,28 +27216,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05422384716854583</v>
+        <v>0.04996199186327713</v>
       </c>
       <c r="J6" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K6" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002389497791432826</v>
+        <v>0.002030349825188349</v>
       </c>
       <c r="M6" t="n">
-        <v>6.68327423279263</v>
+        <v>6.690202569208664</v>
       </c>
       <c r="N6" t="n">
-        <v>69.82971105054318</v>
+        <v>69.938913768628</v>
       </c>
       <c r="O6" t="n">
-        <v>8.356417357369317</v>
+        <v>8.362948867990763</v>
       </c>
       <c r="P6" t="n">
-        <v>365.049505106927</v>
+        <v>365.0916495995621</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27248,28 +27294,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07133994824520826</v>
+        <v>0.07224125850197005</v>
       </c>
       <c r="J7" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003447709130645848</v>
+        <v>0.003549197657928271</v>
       </c>
       <c r="M7" t="n">
-        <v>7.024929953948077</v>
+        <v>7.0156584877192</v>
       </c>
       <c r="N7" t="n">
-        <v>82.42890073299665</v>
+        <v>82.27270439152645</v>
       </c>
       <c r="O7" t="n">
-        <v>9.07903633283823</v>
+        <v>9.070430220861988</v>
       </c>
       <c r="P7" t="n">
-        <v>365.8924265518114</v>
+        <v>365.8834547562338</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27326,28 +27372,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01048542051867055</v>
+        <v>0.00957956415411792</v>
       </c>
       <c r="J8" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K8" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>8.25178341335997e-05</v>
+        <v>6.915747072433476e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.790662237936024</v>
+        <v>6.781063869985497</v>
       </c>
       <c r="N8" t="n">
-        <v>74.4672522316577</v>
+        <v>74.32169752891873</v>
       </c>
       <c r="O8" t="n">
-        <v>8.629441015017004</v>
+        <v>8.621003278558636</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3579359873772</v>
+        <v>369.3670126343219</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27404,28 +27450,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05434528814231796</v>
+        <v>0.05624325998885</v>
       </c>
       <c r="J9" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001810518799678418</v>
+        <v>0.001945454888458209</v>
       </c>
       <c r="M9" t="n">
-        <v>7.287264476463746</v>
+        <v>7.282966090496636</v>
       </c>
       <c r="N9" t="n">
-        <v>92.67828818280408</v>
+        <v>92.54020975022611</v>
       </c>
       <c r="O9" t="n">
-        <v>9.626956330159812</v>
+        <v>9.619782209084887</v>
       </c>
       <c r="P9" t="n">
-        <v>369.190128555731</v>
+        <v>369.1711501426688</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27463,7 +27509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55179,6 +55225,58 @@
         </is>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.49434135286026,174.74270991655038</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.49489187468948,174.74211916818203</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.495489723716126,174.74156321058055</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.49606636496962,174.74099618731657</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.496699972596005,174.74052685533306</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.49741464761679,174.7403310502706</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.498089994393,174.74005688315833</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-36.498809809532865,174.74002311796457</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20459,6 +20459,150 @@
       <c r="J613" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>289.3</v>
+      </c>
+      <c r="C614" t="n">
+        <v>308.93</v>
+      </c>
+      <c r="D614" t="n">
+        <v>321.7272727272727</v>
+      </c>
+      <c r="E614" t="n">
+        <v>324.91</v>
+      </c>
+      <c r="F614" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="G614" t="n">
+        <v>360.2485714285714</v>
+      </c>
+      <c r="H614" t="n">
+        <v>363</v>
+      </c>
+      <c r="I614" t="n">
+        <v>372.95</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>310.84</v>
+      </c>
+      <c r="C615" t="n">
+        <v>333.82</v>
+      </c>
+      <c r="D615" t="n">
+        <v>341.1436363636363</v>
+      </c>
+      <c r="E615" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="F615" t="n">
+        <v>352.98</v>
+      </c>
+      <c r="G615" t="n">
+        <v>366.4542857142857</v>
+      </c>
+      <c r="H615" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="I615" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>324.93</v>
+      </c>
+      <c r="C616" t="n">
+        <v>333.08</v>
+      </c>
+      <c r="D616" t="n">
+        <v>339.1563636363636</v>
+      </c>
+      <c r="E616" t="n">
+        <v>338.83</v>
+      </c>
+      <c r="F616" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="G616" t="n">
+        <v>359.7357142857143</v>
+      </c>
+      <c r="H616" t="n">
+        <v>360.72</v>
+      </c>
+      <c r="I616" t="n">
+        <v>365.16</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>334.2455555555555</v>
+      </c>
+      <c r="C617" t="n">
+        <v>343.03</v>
+      </c>
+      <c r="D617" t="n">
+        <v>348.0245454545454</v>
+      </c>
+      <c r="E617" t="n">
+        <v>345.8</v>
+      </c>
+      <c r="F617" t="n">
+        <v>357.2866666666667</v>
+      </c>
+      <c r="G617" t="n">
+        <v>367.3485714285715</v>
+      </c>
+      <c r="H617" t="n">
+        <v>365.6677777777778</v>
+      </c>
+      <c r="I617" t="n">
+        <v>370.1777777777777</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B625"/>
+  <dimension ref="A1:B629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26731,6 +26875,46 @@
       </c>
       <c r="B625" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -26904,28 +27088,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3591465221102565</v>
+        <v>-0.3999808557684459</v>
       </c>
       <c r="J2" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K2" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01303613266654569</v>
+        <v>0.01613427897998132</v>
       </c>
       <c r="M2" t="n">
-        <v>18.7077014735035</v>
+        <v>18.84850097856227</v>
       </c>
       <c r="N2" t="n">
-        <v>547.4295452586423</v>
+        <v>551.1041796745816</v>
       </c>
       <c r="O2" t="n">
-        <v>23.39721233947844</v>
+        <v>23.47560818540345</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9724457679951</v>
+        <v>351.3858684956762</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26982,28 +27166,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4612844904522586</v>
+        <v>-0.4860137489883276</v>
       </c>
       <c r="J3" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K3" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04716304479863975</v>
+        <v>0.05224042166891218</v>
       </c>
       <c r="M3" t="n">
-        <v>11.31853544502193</v>
+        <v>11.39441417050215</v>
       </c>
       <c r="N3" t="n">
-        <v>243.8159086367087</v>
+        <v>245.1267594197815</v>
       </c>
       <c r="O3" t="n">
-        <v>15.61460561899367</v>
+        <v>15.65652450002175</v>
       </c>
       <c r="P3" t="n">
-        <v>357.2834798955482</v>
+        <v>357.5292095141205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27060,28 +27244,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1378702195454291</v>
+        <v>-0.158875778318319</v>
       </c>
       <c r="J4" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01176589646976223</v>
+        <v>0.01542788603894718</v>
       </c>
       <c r="M4" t="n">
-        <v>7.210901763185192</v>
+        <v>7.264949575461418</v>
       </c>
       <c r="N4" t="n">
-        <v>89.82752054922008</v>
+        <v>91.38368913881746</v>
       </c>
       <c r="O4" t="n">
-        <v>9.477738155763753</v>
+        <v>9.5594816354663</v>
       </c>
       <c r="P4" t="n">
-        <v>355.0003923538206</v>
+        <v>355.20970869487</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27138,28 +27322,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2763798663831241</v>
+        <v>-0.2953669555920381</v>
       </c>
       <c r="J5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K5" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05766690422340248</v>
+        <v>0.06472997306259698</v>
       </c>
       <c r="M5" t="n">
-        <v>6.609563042509922</v>
+        <v>6.657167068199119</v>
       </c>
       <c r="N5" t="n">
-        <v>69.82521962381441</v>
+        <v>71.09278802022386</v>
       </c>
       <c r="O5" t="n">
-        <v>8.356148611879423</v>
+        <v>8.431653931478916</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5720190092249</v>
+        <v>358.7623888008123</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27216,28 +27400,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04996199186327713</v>
+        <v>0.03095458974066177</v>
       </c>
       <c r="J6" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K6" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002030349825188349</v>
+        <v>0.0007783960360466802</v>
       </c>
       <c r="M6" t="n">
-        <v>6.690202569208664</v>
+        <v>6.729061626493949</v>
       </c>
       <c r="N6" t="n">
-        <v>69.938913768628</v>
+        <v>70.67923067903681</v>
       </c>
       <c r="O6" t="n">
-        <v>8.362948867990763</v>
+        <v>8.407094068644456</v>
       </c>
       <c r="P6" t="n">
-        <v>365.0916495995621</v>
+        <v>365.2800476367917</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27294,28 +27478,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07224125850197005</v>
+        <v>0.06572401759077419</v>
       </c>
       <c r="J7" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K7" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003549197657928271</v>
+        <v>0.002978995003376506</v>
       </c>
       <c r="M7" t="n">
-        <v>7.0156584877192</v>
+        <v>6.991468574440701</v>
       </c>
       <c r="N7" t="n">
-        <v>82.27270439152645</v>
+        <v>81.85358210316525</v>
       </c>
       <c r="O7" t="n">
-        <v>9.070430220861988</v>
+        <v>9.047296950093175</v>
       </c>
       <c r="P7" t="n">
-        <v>365.8834547562338</v>
+        <v>365.9484632950272</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27372,28 +27556,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00957956415411792</v>
+        <v>0.0008854678236032943</v>
       </c>
       <c r="J8" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K8" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L8" t="n">
-        <v>6.915747072433476e-05</v>
+        <v>5.983980315704684e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>6.781063869985497</v>
+        <v>6.768776914588456</v>
       </c>
       <c r="N8" t="n">
-        <v>74.32169752891873</v>
+        <v>74.00211543934158</v>
       </c>
       <c r="O8" t="n">
-        <v>8.621003278558636</v>
+        <v>8.602448223578076</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3670126343219</v>
+        <v>369.4543337516768</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27450,28 +27634,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05624325998885</v>
+        <v>0.05464305755217386</v>
       </c>
       <c r="J9" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K9" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001945454888458209</v>
+        <v>0.00186373715054966</v>
       </c>
       <c r="M9" t="n">
-        <v>7.282966090496636</v>
+        <v>7.241578416519495</v>
       </c>
       <c r="N9" t="n">
-        <v>92.54020975022611</v>
+        <v>91.85953212342889</v>
       </c>
       <c r="O9" t="n">
-        <v>9.619782209084887</v>
+        <v>9.584337855242213</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1711501426688</v>
+        <v>369.1872210158953</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27509,7 +27693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55277,6 +55461,214 @@
         </is>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.49417679460385,174.7425220756032</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.494789618228964,174.7420024437183</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.495372185643184,174.74141091060295</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.49595701859283,174.74082835828705</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.496689729177206,174.74050474970016</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.49738635743342,174.7402271007291</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.49808229634536,174.74000932142457</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-36.49880667633645,174.73999316681704</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.49431954235631,174.74268502009832</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.494954567182624,174.7421907310969</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.49549309779508,174.74156758255472</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.496075816740934,174.74101069429923</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.49668946000701,174.7405041688223</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.49740422233106,174.7402927435188</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.498088850807996,174.74004981760746</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-36.49880314424347,174.73995940258956</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.49441291807646,174.74279160760668</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.494949663120366,174.74218513314804</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.49548072239725,174.74155154709428</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.49603580234297,174.7409492785344</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.49668326909191,174.74049080863244</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-36.49738488102793,174.74022167583135</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-36.49807825737223,174.7399843670231</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-36.49879765500443,174.73990692966433</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.49447465305926,174.74286207771607</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.49501560285259,174.74226040292544</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.49553594745066,174.7416231051925</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.496075250766665,174.74100982561754</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.496708780437366,174.74054586295478</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.4974067967815,174.74030220309447</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-36.49808702225211,174.74003852002306</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>-36.49880346592812,174.7399624776557</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20601,6 +20601,78 @@
         <v>370.1777777777777</v>
       </c>
       <c r="J617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>360.7188888888889</v>
+      </c>
+      <c r="C618" t="n">
+        <v>354.11</v>
+      </c>
+      <c r="D618" t="n">
+        <v>352.63</v>
+      </c>
+      <c r="E618" t="n">
+        <v>357.33</v>
+      </c>
+      <c r="F618" t="n">
+        <v>362.0566666666667</v>
+      </c>
+      <c r="G618" t="n">
+        <v>372.29</v>
+      </c>
+      <c r="H618" t="n">
+        <v>378.4644444444445</v>
+      </c>
+      <c r="I618" t="n">
+        <v>376.2344444444445</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>353.72</v>
+      </c>
+      <c r="C619" t="n">
+        <v>349.49</v>
+      </c>
+      <c r="D619" t="n">
+        <v>354.3463636363636</v>
+      </c>
+      <c r="E619" t="n">
+        <v>356.33</v>
+      </c>
+      <c r="F619" t="n">
+        <v>362.88</v>
+      </c>
+      <c r="G619" t="n">
+        <v>365.4728571428572</v>
+      </c>
+      <c r="H619" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="I619" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="J619" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20617,7 +20689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B629"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26915,6 +26987,26 @@
       </c>
       <c r="B629" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -27088,28 +27180,28 @@
         <v>0.0516</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3999808557684459</v>
+        <v>-0.3876300755532542</v>
       </c>
       <c r="J2" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01613427897998132</v>
+        <v>0.01525688188225116</v>
       </c>
       <c r="M2" t="n">
-        <v>18.84850097856227</v>
+        <v>18.81413690038976</v>
       </c>
       <c r="N2" t="n">
-        <v>551.1041796745816</v>
+        <v>549.9529746727013</v>
       </c>
       <c r="O2" t="n">
-        <v>23.47560818540345</v>
+        <v>23.45107619433917</v>
       </c>
       <c r="P2" t="n">
-        <v>351.3858684956762</v>
+        <v>351.260101308499</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27166,28 +27258,28 @@
         <v>0.0417</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4860137489883276</v>
+        <v>-0.4805358964277641</v>
       </c>
       <c r="J3" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05224042166891218</v>
+        <v>0.05149848749521901</v>
       </c>
       <c r="M3" t="n">
-        <v>11.39441417050215</v>
+        <v>11.36602514438132</v>
       </c>
       <c r="N3" t="n">
-        <v>245.1267594197815</v>
+        <v>244.3061098569157</v>
       </c>
       <c r="O3" t="n">
-        <v>15.65652450002175</v>
+        <v>15.63029461836583</v>
       </c>
       <c r="P3" t="n">
-        <v>357.5292095141205</v>
+        <v>357.4744684213127</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27244,28 +27336,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.158875778318319</v>
+        <v>-0.1570526451620224</v>
       </c>
       <c r="J4" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01542788603894718</v>
+        <v>0.01519808736868378</v>
       </c>
       <c r="M4" t="n">
-        <v>7.264949575461418</v>
+        <v>7.245245335533557</v>
       </c>
       <c r="N4" t="n">
-        <v>91.38368913881746</v>
+        <v>91.04282907217916</v>
       </c>
       <c r="O4" t="n">
-        <v>9.5594816354663</v>
+        <v>9.541636603443832</v>
       </c>
       <c r="P4" t="n">
-        <v>355.20970869487</v>
+        <v>355.1914294783895</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27322,28 +27414,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2953669555920381</v>
+        <v>-0.2910140023646929</v>
       </c>
       <c r="J5" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06472997306259698</v>
+        <v>0.06332384792747492</v>
       </c>
       <c r="M5" t="n">
-        <v>6.657167068199119</v>
+        <v>6.653258991903074</v>
       </c>
       <c r="N5" t="n">
-        <v>71.09278802022386</v>
+        <v>70.93958749304394</v>
       </c>
       <c r="O5" t="n">
-        <v>8.431653931478916</v>
+        <v>8.422564187528875</v>
       </c>
       <c r="P5" t="n">
-        <v>358.7623888008123</v>
+        <v>358.7185002076847</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27400,28 +27492,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03095458974066177</v>
+        <v>0.02824542626898825</v>
       </c>
       <c r="J6" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007783960360466802</v>
+        <v>0.0006529413152805974</v>
       </c>
       <c r="M6" t="n">
-        <v>6.729061626493949</v>
+        <v>6.71525495997015</v>
       </c>
       <c r="N6" t="n">
-        <v>70.67923067903681</v>
+        <v>70.44611837034218</v>
       </c>
       <c r="O6" t="n">
-        <v>8.407094068644456</v>
+        <v>8.393218594218917</v>
       </c>
       <c r="P6" t="n">
-        <v>365.2800476367917</v>
+        <v>365.3070420764128</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27478,28 +27570,28 @@
         <v>0.074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06572401759077419</v>
+        <v>0.06664055924009797</v>
       </c>
       <c r="J7" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002978995003376506</v>
+        <v>0.003085378731232269</v>
       </c>
       <c r="M7" t="n">
-        <v>6.991468574440701</v>
+        <v>6.977437990523375</v>
       </c>
       <c r="N7" t="n">
-        <v>81.85358210316525</v>
+        <v>81.57802124430427</v>
       </c>
       <c r="O7" t="n">
-        <v>9.047296950093175</v>
+        <v>9.032055206004017</v>
       </c>
       <c r="P7" t="n">
-        <v>365.9484632950272</v>
+        <v>365.9392973647543</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27556,28 +27648,28 @@
         <v>0.1041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008854678236032943</v>
+        <v>0.005659869092668701</v>
       </c>
       <c r="J8" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K8" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L8" t="n">
-        <v>5.983980315704684e-07</v>
+        <v>2.458849845543565e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.768776914588456</v>
+        <v>6.767259630387105</v>
       </c>
       <c r="N8" t="n">
-        <v>74.00211543934158</v>
+        <v>73.88385308074378</v>
       </c>
       <c r="O8" t="n">
-        <v>8.602448223578076</v>
+        <v>8.595571713431502</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4543337516768</v>
+        <v>369.4061527096843</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27634,28 +27726,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05464305755217386</v>
+        <v>0.05778039992549552</v>
       </c>
       <c r="J9" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K9" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00186373715054966</v>
+        <v>0.002097738434930774</v>
       </c>
       <c r="M9" t="n">
-        <v>7.241578416519495</v>
+        <v>7.229982318989292</v>
       </c>
       <c r="N9" t="n">
-        <v>91.85953212342889</v>
+        <v>91.56747173470839</v>
       </c>
       <c r="O9" t="n">
-        <v>9.584337855242213</v>
+        <v>9.569089389001881</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1872210158953</v>
+        <v>369.1556097244689</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27693,7 +27785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55669,6 +55761,110 @@
         </is>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.49465009385471,174.7430623432175</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.49508903115695,174.74234422107952</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.49556462709626,174.74166026702912</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.496140507556575,174.74110998469956</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.496730179441194,174.74059204278004</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.49742102204564,174.7403544725497</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.49810969115096,174.74017857848534</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-36.49881047992012,174.74002952640342</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.49460371172075,174.74300939792693</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.495058413947575,174.74230927161327</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.49557531544106,174.74167411653227</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.49613484782119,174.74110129786885</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.49673387304793,174.74060001372374</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.49740139701477,174.7402823621641</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.49809969221292,174.7401168004967</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-36.49880734801205,174.73999958755567</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0129/nzd0129.xlsx
+++ b/data/nzd0129/nzd0129.xlsx
@@ -27171,13 +27171,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0399</v>
+        <v>0.0412</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0516</v>
+        <v>0.0591</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3876289011001455</v>
@@ -27252,10 +27252,10 @@
         <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0392</v>
+        <v>0.0393</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0417</v>
+        <v>0.0418</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4805358964277641</v>
@@ -27327,13 +27327,13 @@
         <v>0.2861874486185057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0499</v>
+        <v>0.0577</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0561</v>
+        <v>0.0655</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1570647547485525</v>
@@ -27405,13 +27405,13 @@
         <v>0.4289115870965569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0489</v>
+        <v>0.053</v>
       </c>
       <c r="H5" t="n">
-        <v>0.052</v>
+        <v>0.0611</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2910140023646927</v>
@@ -27483,13 +27483,13 @@
         <v>0.572005311407633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0584</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0664</v>
+        <v>0.0893</v>
       </c>
       <c r="I6" t="n">
         <v>0.02825861954982825</v>
@@ -27561,13 +27561,13 @@
         <v>0.7146443425811977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0663</v>
+        <v>0.0948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.074</v>
+        <v>0.1144</v>
       </c>
       <c r="I7" t="n">
         <v>0.06665070931565534</v>
@@ -27639,13 +27639,13 @@
         <v>0.8570416926431298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0861</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1041</v>
+        <v>0.105</v>
       </c>
       <c r="I8" t="n">
         <v>0.005659111548121984</v>
@@ -27717,13 +27717,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0822</v>
+        <v>0.1259</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1042</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.05778071998140004</v>
